--- a/examples/UK OGD/bristol bus stops/counters.xlsx
+++ b/examples/UK OGD/bristol bus stops/counters.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3913"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/UK OGD/bristol bus stops/counters.xlsx
+++ b/examples/UK OGD/bristol bus stops/counters.xlsx
@@ -360,7 +360,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>error_category</t>
+          <t>error_dimension</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
